--- a/fsdata/대명소노시즌.xlsx
+++ b/fsdata/대명소노시즌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_A\fsdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB033BC-055F-4BF4-9A6B-14D93871836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83705121-20B0-4660-AB39-696CC67C8F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="2880" windowWidth="16710" windowHeight="11130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -7492,7 +7492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10533,8 +10533,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="3" max="3" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
